--- a/biology/Botanique/Jardins_de_Callunes/Jardins_de_Callunes.xlsx
+++ b/biology/Botanique/Jardins_de_Callunes/Jardins_de_Callunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Jardins de Callunes sont un parc paysager et botanique implanté à Ban-de-Sapt dans les Vosges[1], à 550 mètres d'altitude[2]. Les plantes ornementales rustiques y sont les plus nombreuses, callunes et autres bruyères en tête.
+Les Jardins de Callunes sont un parc paysager et botanique implanté à Ban-de-Sapt dans les Vosges, à 550 mètres d'altitude. Les plantes ornementales rustiques y sont les plus nombreuses, callunes et autres bruyères en tête.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La création du parc a été décidée en 1989. Son implantation s'est faite à l'endroit d'une décharge qui utilisait la cavité d'une ancienne carrière de grès.
-Sa conception et sa réalisation furent confiées à Jacques Couturieux, paysagiste[3].
+Sa conception et sa réalisation furent confiées à Jacques Couturieux, paysagiste.
 La pinède a été créée dès 1994, alors que 4 000 m3 de terre végétale et 900 tonnes de roches étaient apportés sur le parc.
-L'ouverture au public date du 2 juin 1996[4]. Dès la première année, le parc totalisa 6 000 visiteurs et se vit décerner le premier prix des jardins de Lorraine[5]. En 2001, la fréquentation était de 14 000 visiteurs.
-Le site a la particularité de se situer sur la ligne de front qui traversait la commune de Ban-de-Sapt lors de la Grande guerre. Un sentier fleuri emprunte d'ailleurs le parcours d'une ancienne tranchée militaire[6].
+L'ouverture au public date du 2 juin 1996. Dès la première année, le parc totalisa 6 000 visiteurs et se vit décerner le premier prix des jardins de Lorraine. En 2001, la fréquentation était de 14 000 visiteurs.
+Le site a la particularité de se situer sur la ligne de front qui traversait la commune de Ban-de-Sapt lors de la Grande guerre. Un sentier fleuri emprunte d'ailleurs le parcours d'une ancienne tranchée militaire.
 À compter du mois de mars 2018, une nouvelle gestion opère, privée : Anthony Coussot a repris le site.
 </t>
         </is>
@@ -548,9 +562,11 @@
           <t>Zones paysagères</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Différentes zones paysagères sont implantées dans le parc, dont[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Différentes zones paysagères sont implantées dans le parc, dont :
 La pinède : rhododendrons et azalées à l'ombre de pins sylvestres.
 Les jardins de bruyères : 250 variétés d'éricacées formant un patchwork de couleurs.
 Le jardin des vivaces : 180 variétés disposées en îlots sur 3 000 m2.
